--- a/Hospital-Example/7 Plan/Prisminstance2/2Prismintance2_travel_distance.xlsx
+++ b/Hospital-Example/7 Plan/Prisminstance2/2Prismintance2_travel_distance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grist\Documents\GitHub\Scheduling-Multi-robot-Missions-with-JointTasks\Hospital-Example\7 Plan\Prisminstance2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2C738F-8CB7-4394-B6FF-559CE07DF498}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D66D86-3F55-4AEF-9DEB-B408DE602A4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4125" yWindow="1920" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21135" yWindow="720" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,7 +422,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>127</v>
+        <v>176</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
@@ -499,7 +499,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>1506</v>
+        <v>1555</v>
       </c>
     </row>
   </sheetData>
